--- a/v3/Report/version3arduinopins.xlsx
+++ b/v3/Report/version3arduinopins.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JYP\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibrhm\Desktop\Spring 2018\ECE 191\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019BB755-BB56-4EEB-ADD2-EBD3D600F9AF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618B0F25-F220-4F7F-B772-0F95FA82A383}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="1" xr2:uid="{05696664-5D96-4184-867B-EF51B03F228D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16440" windowHeight="5289" activeTab="1" xr2:uid="{05696664-5D96-4184-867B-EF51B03F228D}"/>
   </bookViews>
   <sheets>
     <sheet name="Version1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="53">
   <si>
     <t>Wire Color</t>
   </si>
@@ -185,79 +185,31 @@
   </si>
   <si>
     <t>*FIGURE OUT WHY/HOW EL IS USED*</t>
-  </si>
-  <si>
-    <t>A4</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>A5</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCL(OLED)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>SDA(OLED)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>OLED</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>GND(OLED)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>PWR(OLED)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Red</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Black</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blue or White</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>5V</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>GND</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -281,13 +233,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -651,19 +596,19 @@
       <selection activeCell="G15" sqref="B2:G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.19921875" style="2"/>
-    <col min="2" max="2" width="22.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.796875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.59765625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.8984375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="55.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="31.69921875" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.19921875" style="2"/>
+    <col min="1" max="1" width="9.23046875" style="2"/>
+    <col min="2" max="2" width="22.4609375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.765625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.61328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.921875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="55.4609375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="31.69140625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.23046875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -680,7 +625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -697,7 +642,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
@@ -714,7 +659,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
@@ -731,7 +676,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
@@ -748,7 +693,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="12.9" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
@@ -768,7 +713,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
@@ -785,7 +730,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" ht="12.9" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
@@ -805,7 +750,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
@@ -822,7 +767,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
@@ -839,7 +784,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
@@ -856,18 +801,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F15" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F17" s="1" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -875,20 +819,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053076C8-4F84-4E89-89CB-70A82E4A555A}">
-  <dimension ref="B2:G20"/>
+  <dimension ref="B2:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="20.19921875" customWidth="1"/>
-    <col min="3" max="3" width="14.19921875" customWidth="1"/>
-    <col min="4" max="4" width="19.69921875" customWidth="1"/>
-    <col min="5" max="5" width="21.09765625" customWidth="1"/>
-    <col min="6" max="6" width="55.19921875" customWidth="1"/>
-    <col min="7" max="7" width="36.8984375" customWidth="1"/>
+    <col min="2" max="2" width="20.23046875" customWidth="1"/>
+    <col min="3" max="3" width="14.23046875" customWidth="1"/>
+    <col min="4" max="4" width="19.69140625" customWidth="1"/>
+    <col min="5" max="5" width="21.07421875" customWidth="1"/>
+    <col min="6" max="6" width="55.23046875" customWidth="1"/>
+    <col min="7" max="7" width="36.921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.4">
@@ -1119,65 +1063,13 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" t="s">
-        <v>57</v>
-      </c>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D18" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>